--- a/2017-02.xlsx
+++ b/2017-02.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Projekt-Aktuell\PM Bw-Rundtest\aktuell\RT 2016-3Ergebnisse-2017-1Muster\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14376" windowHeight="7440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FRONT PAGE" sheetId="7" r:id="rId1"/>
@@ -29,12 +24,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'MIC, BUNDLE TENACITY, - STRAIN'!$A$1:$J$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'PREMIER aQURA'!$A$1:$H$30</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="146">
   <si>
     <t>Laboratory</t>
   </si>
@@ -466,16 +461,22 @@
   </si>
   <si>
     <t>BREMER BAUMWOLL - RUNDTEST  2017-2</t>
+  </si>
+  <si>
+    <t>BISchoff</t>
+  </si>
+  <si>
+    <t>David</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-407]d/\ mmm/\ yyyy;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -684,7 +685,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -881,6 +882,10 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -933,16 +938,65 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -957,60 +1011,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1215,10 +1220,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1241,14 +1246,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1262,1316 +1267,13 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>85725</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>285750</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2050" name="CheckBox2" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2050"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData fLocksWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>714375</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>285750</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="CheckBox1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData fLocksWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>609600</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>295275</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2052" name="CheckBox4" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2052"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData fLocksWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>23</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>609600</xdr:colOff>
-          <xdr:row>23</xdr:row>
-          <xdr:rowOff>295275</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2053" name="CheckBox5" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2053"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData fLocksWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>647700</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2058" name="CheckBox6" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2058"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData fLocksWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>647700</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2059" name="CheckBox7" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2059"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData fLocksWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>647700</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2060" name="CheckBox8" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2060"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData fLocksWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>714375</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>285750</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2061" name="CheckBox9" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2061"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData fLocksWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>647700</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2062" name="CheckBox10" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2062"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData fLocksWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>647700</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2063" name="CheckBox11" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2063"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData fLocksWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>647700</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2064" name="CheckBox12" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2064"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData fLocksWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>647700</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2065" name="CheckBox13" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2065"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData fLocksWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>647700</xdr:colOff>
-          <xdr:row>17</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2066" name="CheckBox14" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2066"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData fLocksWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>17</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>266700</xdr:colOff>
-          <xdr:row>17</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2067" name="CheckBox15" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2067"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData fLocksWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>17</xdr:row>
-          <xdr:rowOff>257175</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>647700</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2068" name="CheckBox16" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2068"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData fLocksWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>647700</xdr:colOff>
-          <xdr:row>19</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2069" name="CheckBox17" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2069"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData fLocksWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>21</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>21</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2070" name="CheckBox18" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2070"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData fLocksWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>21</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>647700</xdr:colOff>
-          <xdr:row>22</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2071" name="CheckBox19" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2071"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData fLocksWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>22</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>647700</xdr:colOff>
-          <xdr:row>22</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2072" name="CheckBox20" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2072"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData fLocksWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>24</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>24</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2073" name="CheckBox21" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2073"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData fLocksWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>24</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>647700</xdr:colOff>
-          <xdr:row>25</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2074" name="CheckBox22" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2074"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData fLocksWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>19</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>352425</xdr:colOff>
-          <xdr:row>19</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2075" name="CheckBox3" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2075"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>276225</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1027" name="Object 3" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1027"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FEEC9E" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="26"/>
-            </a:solidFill>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>85725</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>381000</xdr:colOff>
-          <xdr:row>17</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1028" name="Object 4" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1028"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FEEC9E" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="26"/>
-            </a:solidFill>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2609,9 +1311,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2643,10 +1345,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2678,10 +1379,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2854,24 +1554,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Tabelle1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <cols>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="69.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="69.900000000000006" customHeight="1"/>
+    <row r="2" spans="1:7" ht="24.9" customHeight="1">
       <c r="A2" s="28" t="s">
         <v>143</v>
       </c>
@@ -2882,27 +1582,29 @@
       <c r="F2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="10">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="58" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" customHeight="1">
       <c r="A4" s="58"/>
     </row>
-    <row r="5" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="24.9" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>111</v>
       </c>
       <c r="E5" s="67"/>
       <c r="F5" s="76"/>
     </row>
-    <row r="6" spans="1:7" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="12.6" customHeight="1">
       <c r="E6" s="40"/>
     </row>
-    <row r="7" spans="1:7" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="12.6" customHeight="1">
       <c r="C7" s="1" t="s">
         <v>69</v>
       </c>
@@ -2910,101 +1612,101 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="24.9" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15" customHeight="1">
       <c r="A9" s="41"/>
       <c r="F9" s="5"/>
       <c r="G9" s="34"/>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15" customHeight="1">
       <c r="A10" s="41"/>
       <c r="F10" s="5"/>
       <c r="G10" s="34"/>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15" customHeight="1">
       <c r="A11" s="41"/>
       <c r="F11" s="5"/>
       <c r="G11" s="34"/>
     </row>
-    <row r="12" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="24.9" customHeight="1">
       <c r="A12" s="41"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15" customHeight="1">
       <c r="A13" s="41"/>
       <c r="G13" s="34"/>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="15" customHeight="1">
       <c r="A14" s="41"/>
       <c r="G14" s="34"/>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15" customHeight="1">
       <c r="A15" s="41"/>
       <c r="G15" s="34"/>
     </row>
-    <row r="16" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="24.9" customHeight="1">
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="24.9" customHeight="1">
       <c r="G17" s="34"/>
     </row>
-    <row r="18" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="24.9" customHeight="1">
       <c r="G18" s="34"/>
     </row>
-    <row r="19" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="24.9" customHeight="1">
       <c r="G19" s="34"/>
     </row>
-    <row r="20" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="24.9" customHeight="1">
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="24.9" customHeight="1">
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="24.9" customHeight="1">
       <c r="G22" s="34"/>
     </row>
-    <row r="23" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="24.9" customHeight="1">
       <c r="G23" s="34"/>
     </row>
-    <row r="24" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="24.9" customHeight="1">
       <c r="G24" s="9"/>
     </row>
-    <row r="25" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="24.9" customHeight="1">
       <c r="G25" s="34"/>
     </row>
-    <row r="26" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="12.6" customHeight="1">
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="24.9" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="80"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="82"/>
-    </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D27" s="81"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="83"/>
+    </row>
+    <row r="28" spans="1:8" ht="15" customHeight="1"/>
+    <row r="29" spans="1:8" ht="15" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="85" t="s">
+      <c r="B29" s="86" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="85"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="84"/>
-    </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="85"/>
+    </row>
+    <row r="30" spans="1:8" ht="15" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
         <v>89</v>
@@ -3015,7 +1717,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="15" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>90</v>
@@ -3026,7 +1728,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="15" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>91</v>
@@ -3037,7 +1739,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="15" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
         <v>92</v>
@@ -3048,7 +1750,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="9.9" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -3057,7 +1759,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="15" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
         <v>106</v>
@@ -3068,7 +1770,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="9.9" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -3077,7 +1779,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="15" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
         <v>76</v>
@@ -3088,7 +1790,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="15" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
         <v>75</v>
@@ -3099,7 +1801,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="15" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -3108,44 +1810,44 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="83" t="s">
+    <row r="40" spans="1:8" ht="24.9" customHeight="1">
+      <c r="A40" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="83"/>
-      <c r="C40" s="83"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="83"/>
-      <c r="F40" s="83"/>
-      <c r="G40" s="83"/>
-      <c r="H40" s="84"/>
-    </row>
-    <row r="41" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="84"/>
+      <c r="C40" s="84"/>
+      <c r="D40" s="84"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="84"/>
+      <c r="G40" s="84"/>
+      <c r="H40" s="85"/>
+    </row>
+    <row r="41" spans="1:8" ht="24.9" customHeight="1">
       <c r="A41" s="65" t="s">
         <v>107</v>
       </c>
       <c r="B41" s="64"/>
-      <c r="C41" s="86"/>
-      <c r="D41" s="87"/>
-      <c r="E41" s="87"/>
-      <c r="F41" s="87"/>
-      <c r="G41" s="88"/>
+      <c r="C41" s="87"/>
+      <c r="D41" s="88"/>
+      <c r="E41" s="88"/>
+      <c r="F41" s="88"/>
+      <c r="G41" s="89"/>
       <c r="H41" s="36"/>
     </row>
-    <row r="42" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="24.9" customHeight="1">
       <c r="A42" s="65" t="s">
         <v>108</v>
       </c>
       <c r="B42" s="64"/>
-      <c r="C42" s="89"/>
-      <c r="D42" s="90"/>
-      <c r="E42" s="90"/>
-      <c r="F42" s="90"/>
-      <c r="G42" s="91"/>
+      <c r="C42" s="90"/>
+      <c r="D42" s="91"/>
+      <c r="E42" s="91"/>
+      <c r="F42" s="91"/>
+      <c r="G42" s="92"/>
       <c r="H42" s="36"/>
     </row>
-    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="15" customHeight="1"/>
+    <row r="44" spans="1:8" ht="24.9" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>63</v>
       </c>
@@ -3154,12 +1856,12 @@
       <c r="D44" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E44" s="77"/>
-      <c r="F44" s="78"/>
-      <c r="G44" s="79"/>
-    </row>
-    <row r="45" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="E44" s="78"/>
+      <c r="F44" s="79"/>
+      <c r="G44" s="80"/>
+    </row>
+    <row r="45" spans="1:8" ht="24.9" customHeight="1"/>
+    <row r="46" spans="1:8" ht="24.9" customHeight="1"/>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="6">
@@ -3183,587 +1885,59 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <controls>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2050" r:id="rId4" name="CheckBox2">
-          <controlPr locked="0" autoLine="0" autoPict="0" r:id="rId5">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>285750</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2050" r:id="rId4" name="CheckBox2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId6" name="CheckBox1">
-          <controlPr locked="0" autoLine="0" autoPict="0" r:id="rId7">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>714375</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>285750</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2049" r:id="rId6" name="CheckBox1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId8" name="CheckBox4">
-          <controlPr locked="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>295275</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2052" r:id="rId8" name="CheckBox4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2053" r:id="rId10" name="CheckBox5">
-          <controlPr locked="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>295275</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2053" r:id="rId10" name="CheckBox5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2058" r:id="rId12" name="CheckBox6">
-          <controlPr locked="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2058" r:id="rId12" name="CheckBox6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2059" r:id="rId14" name="CheckBox7">
-          <controlPr locked="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2059" r:id="rId14" name="CheckBox7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2060" r:id="rId16" name="CheckBox8">
-          <controlPr locked="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2060" r:id="rId16" name="CheckBox8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2061" r:id="rId18" name="CheckBox9">
-          <controlPr locked="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>714375</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>285750</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2061" r:id="rId18" name="CheckBox9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2062" r:id="rId20" name="CheckBox10">
-          <controlPr locked="0" autoLine="0" r:id="rId21">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2062" r:id="rId20" name="CheckBox10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2063" r:id="rId22" name="CheckBox11">
-          <controlPr locked="0" autoLine="0" r:id="rId23">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2063" r:id="rId22" name="CheckBox11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2064" r:id="rId24" name="CheckBox12">
-          <controlPr locked="0" autoLine="0" r:id="rId25">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2064" r:id="rId24" name="CheckBox12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2065" r:id="rId26" name="CheckBox13">
-          <controlPr locked="0" autoLine="0" r:id="rId27">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2065" r:id="rId26" name="CheckBox13"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2066" r:id="rId28" name="CheckBox14">
-          <controlPr locked="0" autoLine="0" r:id="rId29">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2066" r:id="rId28" name="CheckBox14"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2067" r:id="rId30" name="CheckBox15">
-          <controlPr locked="0" autoLine="0" r:id="rId31">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2067" r:id="rId30" name="CheckBox15"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2068" r:id="rId32" name="CheckBox16">
-          <controlPr locked="0" autoLine="0" r:id="rId33">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>257175</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2068" r:id="rId32" name="CheckBox16"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2069" r:id="rId34" name="CheckBox17">
-          <controlPr locked="0" autoLine="0" r:id="rId35">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2069" r:id="rId34" name="CheckBox17"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2070" r:id="rId36" name="CheckBox18">
-          <controlPr locked="0" autoLine="0" r:id="rId37">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>285750</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2070" r:id="rId36" name="CheckBox18"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2071" r:id="rId38" name="CheckBox19">
-          <controlPr locked="0" autoLine="0" r:id="rId39">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2071" r:id="rId38" name="CheckBox19"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2072" r:id="rId40" name="CheckBox20">
-          <controlPr locked="0" autoLine="0" r:id="rId41">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2072" r:id="rId40" name="CheckBox20"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2073" r:id="rId42" name="CheckBox21">
-          <controlPr locked="0" autoLine="0" r:id="rId43">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>285750</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2073" r:id="rId42" name="CheckBox21"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2074" r:id="rId44" name="CheckBox22">
-          <controlPr locked="0" autoLine="0" r:id="rId45">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>25</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2074" r:id="rId44" name="CheckBox22"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2075" r:id="rId46" name="CheckBox3">
-          <controlPr autoLine="0" autoPict="0" r:id="rId47">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>352425</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2075" r:id="rId46" name="CheckBox3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <control shapeId="2075" r:id="rId4" name="CheckBox3"/>
+    <control shapeId="2074" r:id="rId5" name="CheckBox22"/>
+    <control shapeId="2073" r:id="rId6" name="CheckBox21"/>
+    <control shapeId="2072" r:id="rId7" name="CheckBox20"/>
+    <control shapeId="2071" r:id="rId8" name="CheckBox19"/>
+    <control shapeId="2070" r:id="rId9" name="CheckBox18"/>
+    <control shapeId="2069" r:id="rId10" name="CheckBox17"/>
+    <control shapeId="2068" r:id="rId11" name="CheckBox16"/>
+    <control shapeId="2067" r:id="rId12" name="CheckBox15"/>
+    <control shapeId="2066" r:id="rId13" name="CheckBox14"/>
+    <control shapeId="2065" r:id="rId14" name="CheckBox13"/>
+    <control shapeId="2064" r:id="rId15" name="CheckBox12"/>
+    <control shapeId="2063" r:id="rId16" name="CheckBox11"/>
+    <control shapeId="2062" r:id="rId17" name="CheckBox10"/>
+    <control shapeId="2061" r:id="rId18" name="CheckBox9"/>
+    <control shapeId="2060" r:id="rId19" name="CheckBox8"/>
+    <control shapeId="2059" r:id="rId20" name="CheckBox7"/>
+    <control shapeId="2058" r:id="rId21" name="CheckBox6"/>
+    <control shapeId="2053" r:id="rId22" name="CheckBox5"/>
+    <control shapeId="2052" r:id="rId23" name="CheckBox4"/>
+    <control shapeId="2049" r:id="rId24" name="CheckBox1"/>
+    <control shapeId="2050" r:id="rId25" name="CheckBox2"/>
   </controls>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Tabelle2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A3:J45"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="24.9" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="2" width="14.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="1"/>
-    <col min="4" max="4" width="3.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="1"/>
-    <col min="6" max="6" width="3.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="1"/>
-    <col min="8" max="8" width="9.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="2.5703125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="11.44140625" style="1"/>
+    <col min="2" max="2" width="14.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="1"/>
+    <col min="4" max="4" width="3.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="1"/>
+    <col min="6" max="6" width="3.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" style="1"/>
+    <col min="8" max="8" width="9.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="2.5546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="24.9" customHeight="1">
       <c r="A3" s="28" t="str">
         <f>'FRONT PAGE'!A2</f>
         <v>BREMER BAUMWOLL - RUNDTEST  2017-2</v>
@@ -3771,52 +1945,56 @@
       <c r="H3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="42" t="str">
+      <c r="I3" s="42">
         <f>IF('FRONT PAGE'!G2&gt;0,'FRONT PAGE'!G2," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="28" t="s">
         <v>87</v>
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="28"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="24.9" customHeight="1">
       <c r="A6" s="29" t="s">
         <v>80</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="3"/>
+      <c r="I6" s="3">
+        <v>25</v>
+      </c>
       <c r="J6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="24.9" customHeight="1">
       <c r="H7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="3"/>
+      <c r="I7" s="3">
+        <v>70</v>
+      </c>
       <c r="J7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="24.9" customHeight="1">
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="12.6" customHeight="1">
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="24.9" customHeight="1">
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="24.9" customHeight="1">
       <c r="A11" s="38" t="s">
         <v>9</v>
       </c>
@@ -3830,7 +2008,7 @@
       <c r="I11" s="38"/>
       <c r="J11" s="38"/>
     </row>
-    <row r="12" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="24.9" customHeight="1">
       <c r="A12" s="20"/>
       <c r="B12" s="32"/>
       <c r="C12" s="32"/>
@@ -3841,15 +2019,19 @@
         <v>72</v>
       </c>
       <c r="H12" s="32"/>
-      <c r="I12" s="3"/>
+      <c r="I12" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="J12" s="32"/>
     </row>
-    <row r="13" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="24.9" customHeight="1">
       <c r="A13" s="32"/>
       <c r="B13" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="14"/>
+      <c r="C13" s="14">
+        <v>30</v>
+      </c>
       <c r="D13" s="21"/>
       <c r="E13" s="43"/>
       <c r="F13" s="32"/>
@@ -3857,10 +2039,12 @@
         <v>7</v>
       </c>
       <c r="H13" s="32"/>
-      <c r="I13" s="14"/>
+      <c r="I13" s="77" t="s">
+        <v>145</v>
+      </c>
       <c r="J13" s="32"/>
     </row>
-    <row r="14" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="24.9" customHeight="1">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="21"/>
@@ -3871,10 +2055,12 @@
         <v>73</v>
       </c>
       <c r="H14" s="32"/>
-      <c r="I14" s="14"/>
+      <c r="I14" s="14">
+        <v>123</v>
+      </c>
       <c r="J14" s="32"/>
     </row>
-    <row r="15" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="24.9" customHeight="1">
       <c r="A15" s="33"/>
       <c r="B15" s="43"/>
       <c r="C15" s="43"/>
@@ -3886,7 +2072,7 @@
       <c r="I15" s="32"/>
       <c r="J15" s="32"/>
     </row>
-    <row r="16" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="24.9" customHeight="1">
       <c r="A16" s="57"/>
       <c r="B16" s="44"/>
       <c r="C16" s="44"/>
@@ -3898,7 +2084,7 @@
       <c r="I16" s="26"/>
       <c r="J16" s="26"/>
     </row>
-    <row r="17" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="12.6" customHeight="1">
       <c r="A17" s="57"/>
       <c r="B17" s="44"/>
       <c r="C17" s="44"/>
@@ -3910,7 +2096,7 @@
       <c r="I17" s="26"/>
       <c r="J17" s="26"/>
     </row>
-    <row r="18" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="24.9" customHeight="1">
       <c r="A18" s="26"/>
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
@@ -3922,7 +2108,7 @@
       <c r="I18" s="26"/>
       <c r="J18" s="26"/>
     </row>
-    <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="24.9" customHeight="1">
       <c r="A19" s="32" t="s">
         <v>5</v>
       </c>
@@ -3936,7 +2122,7 @@
       <c r="I19" s="32"/>
       <c r="J19" s="32"/>
     </row>
-    <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="24.9" customHeight="1">
       <c r="A20" s="32"/>
       <c r="B20" s="32"/>
       <c r="C20" s="32"/>
@@ -3948,7 +2134,7 @@
       <c r="I20" s="43"/>
       <c r="J20" s="32"/>
     </row>
-    <row r="21" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="24.9" customHeight="1">
       <c r="A21" s="32" t="s">
         <v>6</v>
       </c>
@@ -3966,7 +2152,7 @@
       <c r="I21" s="14"/>
       <c r="J21" s="32"/>
     </row>
-    <row r="22" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="24.9" customHeight="1">
       <c r="A22" s="32"/>
       <c r="B22" s="32" t="s">
         <v>112</v>
@@ -3982,7 +2168,7 @@
       <c r="I22" s="14"/>
       <c r="J22" s="32"/>
     </row>
-    <row r="23" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="12.6" customHeight="1">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="43"/>
@@ -3994,7 +2180,7 @@
       <c r="I23" s="43"/>
       <c r="J23" s="38"/>
     </row>
-    <row r="24" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="12.6" customHeight="1">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="43"/>
@@ -4006,7 +2192,7 @@
       <c r="I24" s="43"/>
       <c r="J24" s="38"/>
     </row>
-    <row r="25" spans="1:10" s="26" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" s="26" customFormat="1" ht="24.9" customHeight="1">
       <c r="C25" s="44"/>
       <c r="D25" s="44"/>
       <c r="E25" s="44"/>
@@ -4016,7 +2202,7 @@
       <c r="I25" s="44"/>
       <c r="J25" s="13"/>
     </row>
-    <row r="26" spans="1:10" s="26" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" s="26" customFormat="1" ht="12.6" customHeight="1">
       <c r="C26" s="44"/>
       <c r="D26" s="44"/>
       <c r="E26" s="44"/>
@@ -4026,7 +2212,7 @@
       <c r="I26" s="44"/>
       <c r="J26" s="13"/>
     </row>
-    <row r="27" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="24.9" customHeight="1">
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -4036,7 +2222,7 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="24.9" customHeight="1">
       <c r="A28" s="32" t="s">
         <v>8</v>
       </c>
@@ -4050,7 +2236,7 @@
       <c r="I28" s="38"/>
       <c r="J28" s="38"/>
     </row>
-    <row r="29" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="24.9" customHeight="1">
       <c r="A29" s="32"/>
       <c r="B29" s="32" t="s">
         <v>114</v>
@@ -4066,7 +2252,7 @@
       <c r="I29" s="14"/>
       <c r="J29" s="32"/>
     </row>
-    <row r="30" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="24.9" customHeight="1">
       <c r="A30" s="32"/>
       <c r="B30" s="32" t="s">
         <v>115</v>
@@ -4082,7 +2268,7 @@
       <c r="I30" s="14"/>
       <c r="J30" s="32"/>
     </row>
-    <row r="31" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="12.6" customHeight="1">
       <c r="A31" s="38"/>
       <c r="B31" s="38"/>
       <c r="C31" s="43"/>
@@ -4094,7 +2280,7 @@
       <c r="I31" s="38"/>
       <c r="J31" s="38"/>
     </row>
-    <row r="32" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="12.6" customHeight="1">
       <c r="A32" s="38"/>
       <c r="B32" s="38"/>
       <c r="C32" s="43"/>
@@ -4106,7 +2292,7 @@
       <c r="I32" s="38"/>
       <c r="J32" s="38"/>
     </row>
-    <row r="33" spans="1:10" s="26" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" s="26" customFormat="1" ht="24.9" customHeight="1">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="44"/>
@@ -4118,7 +2304,7 @@
       <c r="I33" s="13"/>
       <c r="J33" s="13"/>
     </row>
-    <row r="34" spans="1:10" s="26" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" s="26" customFormat="1" ht="12.6" customHeight="1">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
       <c r="C34" s="44"/>
@@ -4130,7 +2316,7 @@
       <c r="I34" s="13"/>
       <c r="J34" s="13"/>
     </row>
-    <row r="35" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="24.9" customHeight="1">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -4142,10 +2328,10 @@
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
     </row>
-    <row r="40" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="41" spans="1:10" ht="12.6" customHeight="1"/>
+    <row r="42" spans="1:10" ht="12.6" customHeight="1"/>
+    <row r="45" spans="1:10" ht="24.9" customHeight="1">
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -4171,7 +2357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Tabelle3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4181,17 +2367,17 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" customWidth="1"/>
-    <col min="6" max="6" width="2.85546875" customWidth="1"/>
-    <col min="8" max="8" width="4.42578125" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1"/>
-    <col min="10" max="10" width="2.85546875" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" customWidth="1"/>
+    <col min="6" max="6" width="2.88671875" customWidth="1"/>
+    <col min="8" max="8" width="4.44140625" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" customWidth="1"/>
+    <col min="10" max="10" width="2.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="24.9" customHeight="1">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -4202,7 +2388,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="24.9" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -4213,7 +2399,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="24.9" customHeight="1">
       <c r="A3" s="30" t="str">
         <f>'FRONT PAGE'!A2</f>
         <v>BREMER BAUMWOLL - RUNDTEST  2017-2</v>
@@ -4227,12 +2413,12 @@
         <v>0</v>
       </c>
       <c r="H3" s="5"/>
-      <c r="I3" s="42" t="str">
+      <c r="I3" s="42">
         <f>IF('FRONT PAGE'!G2&gt;0,'FRONT PAGE'!G2," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="30" t="s">
         <v>87</v>
       </c>
@@ -4245,7 +2431,7 @@
       <c r="H4" s="5"/>
       <c r="I4" s="48"/>
     </row>
-    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -4256,7 +2442,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="24.9" customHeight="1">
       <c r="A6" s="31" t="s">
         <v>65</v>
       </c>
@@ -4274,7 +2460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="24.9" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -4290,7 +2476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="24.9" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -4302,7 +2488,7 @@
       <c r="I8" s="7"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="24.9" customHeight="1">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -4313,7 +2499,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="24.9" customHeight="1">
       <c r="A10" s="11" t="s">
         <v>11</v>
       </c>
@@ -4327,7 +2513,7 @@
       <c r="I10" s="19"/>
       <c r="J10" s="17"/>
     </row>
-    <row r="11" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="24.9" customHeight="1">
       <c r="A11" s="11"/>
       <c r="B11" s="11" t="s">
         <v>12</v>
@@ -4345,7 +2531,7 @@
       <c r="I11" s="14"/>
       <c r="J11" s="17"/>
     </row>
-    <row r="12" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="24.9" customHeight="1">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11" t="s">
@@ -4361,7 +2547,7 @@
       <c r="I12" s="14"/>
       <c r="J12" s="17"/>
     </row>
-    <row r="13" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="24.9" customHeight="1">
       <c r="A13" s="11"/>
       <c r="B13" s="11" t="s">
         <v>15</v>
@@ -4379,7 +2565,7 @@
       <c r="I13" s="14"/>
       <c r="J13" s="17"/>
     </row>
-    <row r="14" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="24.9" customHeight="1">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11" t="s">
@@ -4393,7 +2579,7 @@
       <c r="I14" s="19"/>
       <c r="J14" s="17"/>
     </row>
-    <row r="15" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="24.9" customHeight="1">
       <c r="A15" s="11"/>
       <c r="B15" s="11" t="s">
         <v>16</v>
@@ -4409,7 +2595,7 @@
       <c r="I15" s="19"/>
       <c r="J15" s="17"/>
     </row>
-    <row r="16" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="24.9" customHeight="1">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -4425,7 +2611,7 @@
       <c r="I16" s="19"/>
       <c r="J16" s="17"/>
     </row>
-    <row r="17" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="24.9" customHeight="1">
       <c r="A17" s="11"/>
       <c r="B17" s="11" t="s">
         <v>17</v>
@@ -4441,7 +2627,7 @@
       <c r="I17" s="19"/>
       <c r="J17" s="17"/>
     </row>
-    <row r="18" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="24.9" customHeight="1">
       <c r="A18" s="11"/>
       <c r="B18" s="11" t="s">
         <v>116</v>
@@ -4455,7 +2641,7 @@
       <c r="I18" s="19"/>
       <c r="J18" s="17"/>
     </row>
-    <row r="19" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="12.6" customHeight="1">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -4467,7 +2653,7 @@
       <c r="I19" s="19"/>
       <c r="J19" s="17"/>
     </row>
-    <row r="20" spans="1:10" s="16" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" s="16" customFormat="1" ht="24.9" customHeight="1">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -4478,7 +2664,7 @@
       <c r="H20" s="45"/>
       <c r="I20" s="45"/>
     </row>
-    <row r="21" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="24.9" customHeight="1">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -4489,7 +2675,7 @@
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="24.9" customHeight="1">
       <c r="A22" s="19" t="s">
         <v>21</v>
       </c>
@@ -4507,7 +2693,7 @@
       <c r="I22" s="19"/>
       <c r="J22" s="17"/>
     </row>
-    <row r="23" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="24.9" customHeight="1">
       <c r="A23" s="19"/>
       <c r="B23" s="19" t="s">
         <v>22</v>
@@ -4525,7 +2711,7 @@
       <c r="I23" s="14"/>
       <c r="J23" s="17"/>
     </row>
-    <row r="24" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="24.9" customHeight="1">
       <c r="A24" s="19"/>
       <c r="B24" s="11" t="s">
         <v>23</v>
@@ -4543,7 +2729,7 @@
       <c r="I24" s="14"/>
       <c r="J24" s="17"/>
     </row>
-    <row r="25" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="24.9" customHeight="1">
       <c r="A25" s="19"/>
       <c r="B25" s="11" t="s">
         <v>17</v>
@@ -4561,7 +2747,7 @@
       <c r="I25" s="14"/>
       <c r="J25" s="17"/>
     </row>
-    <row r="26" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="12.6" customHeight="1">
       <c r="A26" s="19"/>
       <c r="B26" s="11"/>
       <c r="C26" s="19"/>
@@ -4573,7 +2759,7 @@
       <c r="I26" s="21"/>
       <c r="J26" s="17"/>
     </row>
-    <row r="27" spans="1:10" s="16" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" s="16" customFormat="1" ht="24.9" customHeight="1">
       <c r="A27" s="45"/>
       <c r="B27" s="13"/>
       <c r="C27" s="45"/>
@@ -4584,7 +2770,7 @@
       <c r="H27" s="13"/>
       <c r="I27" s="44"/>
     </row>
-    <row r="28" spans="1:10" s="16" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" s="16" customFormat="1" ht="24.9" customHeight="1">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -4595,7 +2781,7 @@
       <c r="H28" s="45"/>
       <c r="I28" s="45"/>
     </row>
-    <row r="29" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="24.9" customHeight="1">
       <c r="A29" s="19" t="s">
         <v>24</v>
       </c>
@@ -4613,7 +2799,7 @@
       <c r="I29" s="19"/>
       <c r="J29" s="17"/>
     </row>
-    <row r="30" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="24.9" customHeight="1">
       <c r="A30" s="19"/>
       <c r="B30" s="19" t="s">
         <v>22</v>
@@ -4631,7 +2817,7 @@
       <c r="I30" s="14"/>
       <c r="J30" s="17"/>
     </row>
-    <row r="31" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="24.9" customHeight="1">
       <c r="A31" s="19"/>
       <c r="B31" s="19" t="s">
         <v>23</v>
@@ -4649,7 +2835,7 @@
       <c r="I31" s="14"/>
       <c r="J31" s="17"/>
     </row>
-    <row r="32" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="24.9" customHeight="1">
       <c r="A32" s="19"/>
       <c r="B32" s="19" t="s">
         <v>25</v>
@@ -4667,7 +2853,7 @@
       <c r="I32" s="14"/>
       <c r="J32" s="17"/>
     </row>
-    <row r="33" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="12.6" customHeight="1">
       <c r="A33" s="17"/>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
@@ -4679,7 +2865,7 @@
       <c r="I33" s="17"/>
       <c r="J33" s="17"/>
     </row>
-    <row r="34" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="24.9" customHeight="1">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -4691,7 +2877,7 @@
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="24.9" customHeight="1">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -4703,7 +2889,7 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="24.9" customHeight="1">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -4715,7 +2901,7 @@
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="24.9" customHeight="1">
       <c r="A37" s="5"/>
       <c r="B37" s="34"/>
       <c r="C37" s="5"/>
@@ -4727,7 +2913,7 @@
       <c r="I37" s="47"/>
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="24.9" customHeight="1">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -4739,7 +2925,7 @@
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="24.9" customHeight="1">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -4751,7 +2937,7 @@
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="24.9" customHeight="1">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -4763,7 +2949,7 @@
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="24.9" customHeight="1">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -4775,7 +2961,7 @@
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
     </row>
-    <row r="42" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="24.9" customHeight="1">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -4787,7 +2973,7 @@
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
     </row>
-    <row r="43" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="24.9" customHeight="1">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -4799,13 +2985,13 @@
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
     </row>
-    <row r="44" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:10" ht="24.9" customHeight="1"/>
+    <row r="45" spans="1:10" ht="24.9" customHeight="1"/>
+    <row r="46" spans="1:10" ht="24.9" customHeight="1"/>
+    <row r="47" spans="1:10" ht="24.9" customHeight="1"/>
+    <row r="48" spans="1:10" ht="24.9" customHeight="1"/>
+    <row r="49" ht="24.9" customHeight="1"/>
+    <row r="50" ht="24.9" customHeight="1"/>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4825,7 +3011,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Tabelle4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4835,16 +3021,16 @@
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="24.9" customHeight="1"/>
   <cols>
-    <col min="1" max="7" width="11.42578125" style="1"/>
-    <col min="8" max="8" width="5.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="3.5703125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="7" width="11.44140625" style="1"/>
+    <col min="8" max="8" width="5.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="3.5546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="24.9" customHeight="1">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -4855,7 +3041,7 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="24.9" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -4866,7 +3052,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="24.9" customHeight="1">
       <c r="A3" s="30" t="str">
         <f>'FRONT PAGE'!A2</f>
         <v>BREMER BAUMWOLL - RUNDTEST  2017-2</v>
@@ -4880,12 +3066,12 @@
         <v>0</v>
       </c>
       <c r="H3" s="4"/>
-      <c r="I3" s="42" t="str">
+      <c r="I3" s="42">
         <f>IF('FRONT PAGE'!G2&gt;0,'FRONT PAGE'!G2," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="30" t="s">
         <v>87</v>
       </c>
@@ -4898,7 +3084,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="48"/>
     </row>
-    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -4909,7 +3095,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="24.9" customHeight="1">
       <c r="A6" s="31" t="s">
         <v>81</v>
       </c>
@@ -4927,7 +3113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="24.9" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -4943,7 +3129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="24.9" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -4954,7 +3140,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="24"/>
     </row>
-    <row r="10" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="12.6" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -4966,7 +3152,7 @@
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
     </row>
-    <row r="11" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="24.9" customHeight="1">
       <c r="A11" s="11" t="s">
         <v>27</v>
       </c>
@@ -4980,7 +3166,7 @@
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
     </row>
-    <row r="12" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="24.9" customHeight="1">
       <c r="A12" s="11"/>
       <c r="B12" s="11" t="s">
         <v>82</v>
@@ -4998,7 +3184,7 @@
       <c r="I12" s="14"/>
       <c r="J12" s="20"/>
     </row>
-    <row r="13" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="24.9" customHeight="1">
       <c r="A13" s="11"/>
       <c r="B13" s="11" t="s">
         <v>28</v>
@@ -5014,7 +3200,7 @@
       <c r="I13" s="14"/>
       <c r="J13" s="20"/>
     </row>
-    <row r="14" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="24.9" customHeight="1">
       <c r="A14" s="11"/>
       <c r="B14" s="11" t="s">
         <v>29</v>
@@ -5032,7 +3218,7 @@
       <c r="I14" s="14"/>
       <c r="J14" s="11"/>
     </row>
-    <row r="15" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="12.6" customHeight="1">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -5044,7 +3230,7 @@
       <c r="I15" s="21"/>
       <c r="J15" s="11"/>
     </row>
-    <row r="16" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="12.6" customHeight="1">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -5056,7 +3242,7 @@
       <c r="I16" s="21"/>
       <c r="J16" s="11"/>
     </row>
-    <row r="17" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="24.9" customHeight="1">
       <c r="A17" s="19"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -5068,7 +3254,7 @@
       <c r="I17" s="21"/>
       <c r="J17" s="11"/>
     </row>
-    <row r="18" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="24.9" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -5079,7 +3265,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="12.6" customHeight="1">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -5091,7 +3277,7 @@
       <c r="I19" s="11"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="24.9" customHeight="1">
       <c r="A20" s="11" t="s">
         <v>11</v>
       </c>
@@ -5109,7 +3295,7 @@
       <c r="I20" s="14"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="24.9" customHeight="1">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -5123,7 +3309,7 @@
       <c r="I21" s="14"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="24.9" customHeight="1">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -5137,7 +3323,7 @@
       <c r="I22" s="14"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="12.6" customHeight="1">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -5149,7 +3335,7 @@
       <c r="I23" s="21"/>
       <c r="J23" s="11"/>
     </row>
-    <row r="24" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="24.9" customHeight="1">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -5161,7 +3347,7 @@
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="12.6" customHeight="1">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -5173,7 +3359,7 @@
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
     </row>
-    <row r="26" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="24.9" customHeight="1">
       <c r="A26" s="11" t="s">
         <v>121</v>
       </c>
@@ -5189,7 +3375,7 @@
       <c r="I26" s="14"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="24.9" customHeight="1">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -5203,7 +3389,7 @@
       <c r="I27" s="14"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="24.9" customHeight="1">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -5217,7 +3403,7 @@
       <c r="I28" s="14"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="12.6" customHeight="1">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -5229,7 +3415,7 @@
       <c r="I29" s="21"/>
       <c r="J29" s="11"/>
     </row>
-    <row r="30" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="24.9" customHeight="1">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -5241,7 +3427,7 @@
       <c r="I30" s="44"/>
       <c r="J30" s="13"/>
     </row>
-    <row r="31" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="12.6" customHeight="1">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -5253,7 +3439,7 @@
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
     </row>
-    <row r="32" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="24.9" customHeight="1">
       <c r="A32" s="11" t="s">
         <v>85</v>
       </c>
@@ -5271,7 +3457,7 @@
       <c r="I32" s="14"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="24.9" customHeight="1">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11" t="s">
@@ -5287,7 +3473,7 @@
       <c r="I33" s="14"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="24.9" customHeight="1">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -5301,7 +3487,7 @@
       <c r="I34" s="14"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="12.6" customHeight="1">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -5313,7 +3499,7 @@
       <c r="I35" s="21"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="37" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="12.6" customHeight="1">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -5325,7 +3511,7 @@
       <c r="I37" s="25"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="24.9" customHeight="1">
       <c r="A38" s="11" t="s">
         <v>83</v>
       </c>
@@ -5343,7 +3529,7 @@
       <c r="I38" s="14"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="24.9" customHeight="1">
       <c r="A39" s="32"/>
       <c r="B39" s="32"/>
       <c r="C39" s="32"/>
@@ -5357,7 +3543,7 @@
       <c r="I39" s="14"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="12.6" customHeight="1">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -5369,7 +3555,7 @@
       <c r="I40" s="21"/>
       <c r="J40" s="11"/>
     </row>
-    <row r="41" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="24.9" customHeight="1">
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
@@ -5393,65 +3579,16 @@
 28359 Bremen
 Germany&amp;R&amp;11      </oddHeader>
   </headerFooter>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
   <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.3" shapeId="1027" r:id="rId4">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>200025</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.3" shapeId="1027" r:id="rId4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.3" shapeId="1028" r:id="rId6">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId7">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.3" shapeId="1028" r:id="rId6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <oleObject progId="Equation.3" shapeId="1027" r:id="rId3"/>
+    <oleObject progId="Equation.3" shapeId="1028" r:id="rId4"/>
   </oleObjects>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Tabelle5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5461,17 +3598,17 @@
       <selection activeCell="D8" sqref="D8:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="24.9" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" customWidth="1"/>
     <col min="6" max="12" width="6" customWidth="1"/>
-    <col min="14" max="14" width="3.42578125" customWidth="1"/>
+    <col min="14" max="14" width="3.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="24.9" customHeight="1">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
@@ -5488,7 +3625,7 @@
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
     </row>
-    <row r="2" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="24.9" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -5505,7 +3642,7 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="24.9" customHeight="1">
       <c r="A3" s="30" t="str">
         <f>'FRONT PAGE'!A2</f>
         <v>BREMER BAUMWOLL - RUNDTEST  2017-2</v>
@@ -5519,16 +3656,16 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="92" t="s">
+      <c r="K3" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="93"/>
-      <c r="M3" s="42" t="str">
+      <c r="L3" s="94"/>
+      <c r="M3" s="42">
         <f>IF('FRONT PAGE'!G2&gt;0,'FRONT PAGE'!G2," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="30" t="s">
         <v>93</v>
       </c>
@@ -5545,7 +3682,7 @@
       <c r="L4" s="4"/>
       <c r="M4" s="48"/>
     </row>
-    <row r="5" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="12.6" customHeight="1">
       <c r="A5" s="30"/>
       <c r="B5" s="30"/>
       <c r="C5" s="4"/>
@@ -5560,7 +3697,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="48"/>
     </row>
-    <row r="6" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="24.9" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>94</v>
       </c>
@@ -5577,7 +3714,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="48"/>
     </row>
-    <row r="7" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="12.6" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -5592,59 +3729,59 @@
       <c r="L7" s="4"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="24.9" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="98"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="114"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
-      <c r="K8" s="92" t="s">
+      <c r="K8" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="L8" s="93"/>
+      <c r="L8" s="94"/>
       <c r="M8" s="3"/>
       <c r="N8" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="24.9" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="98"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="114"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
-      <c r="K9" s="92" t="s">
+      <c r="K9" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="93"/>
+      <c r="L9" s="94"/>
       <c r="M9" s="3"/>
       <c r="N9" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="24.9" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="98"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="114"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -5655,15 +3792,15 @@
       <c r="N10" s="5"/>
       <c r="O10" s="7"/>
     </row>
-    <row r="11" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="24.9" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>100</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="98"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="114"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -5674,7 +3811,7 @@
       <c r="N11" s="5"/>
       <c r="O11" s="7"/>
     </row>
-    <row r="12" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="7.5" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -5691,38 +3828,38 @@
       <c r="N12" s="5"/>
       <c r="O12" s="7"/>
     </row>
-    <row r="13" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="24.9" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>101</v>
       </c>
       <c r="B13" s="10">
         <v>1</v>
       </c>
-      <c r="C13" s="99" t="s">
+      <c r="C13" s="108" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="100"/>
+      <c r="D13" s="109"/>
       <c r="E13" s="10">
         <v>2</v>
       </c>
-      <c r="F13" s="99" t="s">
+      <c r="F13" s="108" t="s">
         <v>103</v>
       </c>
-      <c r="G13" s="105"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="105"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111"/>
       <c r="K13" s="10">
         <v>2</v>
       </c>
-      <c r="L13" s="94" t="s">
+      <c r="L13" s="116" t="s">
         <v>104</v>
       </c>
-      <c r="M13" s="94"/>
+      <c r="M13" s="116"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
     </row>
-    <row r="14" spans="1:15" s="5" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" s="5" customFormat="1" ht="12.6" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" s="66" t="s">
         <v>110</v>
@@ -5739,7 +3876,7 @@
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
     </row>
-    <row r="15" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="24.9" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
@@ -5756,7 +3893,7 @@
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
     </row>
-    <row r="16" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="12.6" customHeight="1">
       <c r="A16" s="20"/>
       <c r="B16" s="20"/>
       <c r="C16" s="17"/>
@@ -5772,7 +3909,7 @@
       <c r="M16" s="17"/>
       <c r="N16" s="17"/>
     </row>
-    <row r="17" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="24.9" customHeight="1">
       <c r="A17" s="11" t="s">
         <v>33</v>
       </c>
@@ -5780,10 +3917,10 @@
       <c r="C17" s="11"/>
       <c r="D17" s="49"/>
       <c r="E17" s="52"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="79"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="80"/>
       <c r="J17" s="52"/>
       <c r="K17" s="52"/>
       <c r="L17" s="53"/>
@@ -5791,7 +3928,7 @@
       <c r="N17" s="11"/>
       <c r="O17" s="4"/>
     </row>
-    <row r="18" spans="1:15" s="45" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" s="45" customFormat="1" ht="12.6" customHeight="1">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -5808,15 +3945,15 @@
       <c r="N18" s="11"/>
       <c r="O18" s="13"/>
     </row>
-    <row r="19" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="24.9" customHeight="1">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
-      <c r="D19" s="101" t="s">
+      <c r="D19" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="101"/>
-      <c r="F19" s="101"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
       <c r="I19" s="50" t="s">
@@ -5829,171 +3966,171 @@
       <c r="N19" s="11"/>
       <c r="O19" s="4"/>
     </row>
-    <row r="20" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="24.9" customHeight="1">
       <c r="A20" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="95" t="s">
+      <c r="B20" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="93"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="106" t="s">
+      <c r="C20" s="94"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="97"/>
+      <c r="G20" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="H20" s="107"/>
-      <c r="I20" s="102"/>
-      <c r="J20" s="103"/>
-      <c r="K20" s="103"/>
-      <c r="L20" s="104"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="96"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="97"/>
       <c r="M20" s="49"/>
       <c r="N20" s="11"/>
       <c r="O20" s="4"/>
     </row>
-    <row r="21" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="24.9" customHeight="1">
       <c r="A21" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="95" t="s">
+      <c r="B21" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="93"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="106" t="s">
+      <c r="C21" s="94"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="108"/>
-      <c r="I21" s="102"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="78"/>
-      <c r="L21" s="79"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="79"/>
+      <c r="L21" s="80"/>
       <c r="M21" s="49"/>
       <c r="N21" s="11"/>
       <c r="O21" s="4"/>
     </row>
-    <row r="22" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="24.9" customHeight="1">
       <c r="A22" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="95" t="s">
+      <c r="B22" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="93"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="106" t="s">
+      <c r="C22" s="94"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="101" t="s">
         <v>54</v>
       </c>
-      <c r="H22" s="108"/>
-      <c r="I22" s="109"/>
-      <c r="J22" s="110"/>
-      <c r="K22" s="110"/>
-      <c r="L22" s="111"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="98"/>
+      <c r="J22" s="99"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="100"/>
       <c r="M22" s="49"/>
       <c r="N22" s="11"/>
       <c r="O22" s="4"/>
     </row>
-    <row r="23" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="24.9" customHeight="1">
       <c r="A23" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="95" t="s">
+      <c r="B23" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="93"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="106" t="s">
+      <c r="C23" s="94"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="H23" s="108"/>
-      <c r="I23" s="109"/>
-      <c r="J23" s="110"/>
-      <c r="K23" s="110"/>
-      <c r="L23" s="111"/>
+      <c r="H23" s="103"/>
+      <c r="I23" s="98"/>
+      <c r="J23" s="99"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="100"/>
       <c r="M23" s="49"/>
       <c r="N23" s="11"/>
       <c r="O23" s="4"/>
     </row>
-    <row r="24" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="24.9" customHeight="1">
       <c r="A24" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="95" t="s">
+      <c r="B24" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="93"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="106" t="s">
+      <c r="C24" s="94"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="101" t="s">
         <v>54</v>
       </c>
-      <c r="H24" s="108"/>
-      <c r="I24" s="102"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="78"/>
-      <c r="L24" s="79"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="95"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="80"/>
       <c r="M24" s="49"/>
       <c r="N24" s="11"/>
       <c r="O24" s="4"/>
     </row>
-    <row r="25" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="24.9" customHeight="1">
       <c r="A25" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
-      <c r="D25" s="109"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="111"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="100"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
-      <c r="I25" s="102"/>
-      <c r="J25" s="78"/>
-      <c r="K25" s="78"/>
-      <c r="L25" s="79"/>
+      <c r="I25" s="95"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="80"/>
       <c r="M25" s="49"/>
       <c r="N25" s="11"/>
       <c r="O25" s="4"/>
     </row>
-    <row r="26" spans="1:15" s="36" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" s="36" customFormat="1" ht="24.9" customHeight="1">
       <c r="A26" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="95" t="s">
+      <c r="B26" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="93"/>
-      <c r="D26" s="102"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="79"/>
+      <c r="C26" s="94"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="80"/>
       <c r="G26" s="43"/>
       <c r="H26" s="12"/>
-      <c r="I26" s="102"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="78"/>
-      <c r="L26" s="79"/>
+      <c r="I26" s="95"/>
+      <c r="J26" s="79"/>
+      <c r="K26" s="79"/>
+      <c r="L26" s="80"/>
       <c r="M26" s="60"/>
       <c r="N26" s="11"/>
       <c r="O26" s="4"/>
     </row>
-    <row r="27" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" ht="24.9" customHeight="1">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="12"/>
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="115"/>
-      <c r="H27" s="115"/>
-      <c r="I27" s="115"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="107"/>
+      <c r="H27" s="107"/>
+      <c r="I27" s="107"/>
       <c r="J27" s="54"/>
       <c r="K27" s="54"/>
       <c r="L27" s="51"/>
@@ -6001,7 +4138,7 @@
       <c r="N27" s="11"/>
       <c r="O27" s="4"/>
     </row>
-    <row r="28" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" ht="24.9" customHeight="1">
       <c r="A28" s="11" t="s">
         <v>39</v>
       </c>
@@ -6009,10 +4146,10 @@
       <c r="C28" s="12"/>
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
-      <c r="F28" s="102"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="78"/>
-      <c r="I28" s="79"/>
+      <c r="F28" s="95"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="80"/>
       <c r="J28" s="54"/>
       <c r="K28" s="54"/>
       <c r="L28" s="51"/>
@@ -6020,7 +4157,7 @@
       <c r="N28" s="11"/>
       <c r="O28" s="4"/>
     </row>
-    <row r="29" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" ht="24.9" customHeight="1">
       <c r="A29" s="27" t="s">
         <v>41</v>
       </c>
@@ -6028,10 +4165,10 @@
       <c r="C29" s="12"/>
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="79"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="80"/>
       <c r="J29" s="54"/>
       <c r="K29" s="54"/>
       <c r="L29" s="51"/>
@@ -6039,7 +4176,7 @@
       <c r="N29" s="11"/>
       <c r="O29" s="4"/>
     </row>
-    <row r="30" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" ht="24.9" customHeight="1">
       <c r="A30" s="11" t="s">
         <v>42</v>
       </c>
@@ -6047,10 +4184,10 @@
       <c r="C30" s="12"/>
       <c r="D30" s="17"/>
       <c r="E30" s="17"/>
-      <c r="F30" s="112"/>
-      <c r="G30" s="113"/>
-      <c r="H30" s="113"/>
-      <c r="I30" s="114"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="105"/>
+      <c r="I30" s="106"/>
       <c r="J30" s="54"/>
       <c r="K30" s="54"/>
       <c r="L30" s="51"/>
@@ -6058,7 +4195,7 @@
       <c r="N30" s="11"/>
       <c r="O30" s="4"/>
     </row>
-    <row r="31" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" ht="24.9" customHeight="1">
       <c r="A31" s="11" t="s">
         <v>40</v>
       </c>
@@ -6066,10 +4203,10 @@
       <c r="C31" s="12"/>
       <c r="D31" s="17"/>
       <c r="E31" s="17"/>
-      <c r="F31" s="102"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="79"/>
+      <c r="F31" s="95"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="80"/>
       <c r="J31" s="54"/>
       <c r="K31" s="54"/>
       <c r="L31" s="51"/>
@@ -6077,7 +4214,7 @@
       <c r="N31" s="11"/>
       <c r="O31" s="4"/>
     </row>
-    <row r="32" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="24.9" customHeight="1">
       <c r="A32" s="11" t="s">
         <v>43</v>
       </c>
@@ -6087,10 +4224,10 @@
       <c r="E32" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="102"/>
-      <c r="G32" s="78"/>
-      <c r="H32" s="78"/>
-      <c r="I32" s="79"/>
+      <c r="F32" s="95"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="79"/>
+      <c r="I32" s="80"/>
       <c r="J32" s="54"/>
       <c r="K32" s="54"/>
       <c r="L32" s="51"/>
@@ -6098,7 +4235,7 @@
       <c r="N32" s="11"/>
       <c r="O32" s="4"/>
     </row>
-    <row r="33" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="24.9" customHeight="1">
       <c r="A33" s="11" t="s">
         <v>44</v>
       </c>
@@ -6106,10 +4243,10 @@
       <c r="C33" s="12"/>
       <c r="D33" s="17"/>
       <c r="E33" s="17"/>
-      <c r="F33" s="102"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="78"/>
-      <c r="I33" s="79"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="80"/>
       <c r="J33" s="54"/>
       <c r="K33" s="54"/>
       <c r="L33" s="51"/>
@@ -6117,7 +4254,7 @@
       <c r="N33" s="11"/>
       <c r="O33" s="4"/>
     </row>
-    <row r="34" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" ht="24.9" customHeight="1">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="12"/>
@@ -6134,7 +4271,7 @@
       <c r="N34" s="11"/>
       <c r="O34" s="4"/>
     </row>
-    <row r="35" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" ht="24.9" customHeight="1">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="15"/>
@@ -6151,7 +4288,7 @@
       <c r="N35" s="13"/>
       <c r="O35" s="4"/>
     </row>
-    <row r="36" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" ht="12.6" customHeight="1">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="12"/>
@@ -6168,7 +4305,7 @@
       <c r="N36" s="11"/>
       <c r="O36" s="4"/>
     </row>
-    <row r="37" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" ht="24.9" customHeight="1">
       <c r="A37" s="11" t="s">
         <v>45</v>
       </c>
@@ -6178,10 +4315,10 @@
       <c r="E37" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F37" s="102"/>
-      <c r="G37" s="78"/>
-      <c r="H37" s="78"/>
-      <c r="I37" s="79"/>
+      <c r="F37" s="95"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="79"/>
+      <c r="I37" s="80"/>
       <c r="J37" s="53"/>
       <c r="K37" s="53"/>
       <c r="L37" s="52"/>
@@ -6189,7 +4326,7 @@
       <c r="N37" s="11"/>
       <c r="O37" s="4"/>
     </row>
-    <row r="38" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" ht="24.9" customHeight="1">
       <c r="A38" s="11" t="s">
         <v>105</v>
       </c>
@@ -6197,10 +4334,10 @@
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
       <c r="E38" s="17"/>
-      <c r="F38" s="102"/>
-      <c r="G38" s="78"/>
-      <c r="H38" s="78"/>
-      <c r="I38" s="79"/>
+      <c r="F38" s="95"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="79"/>
+      <c r="I38" s="80"/>
       <c r="J38" s="53"/>
       <c r="K38" s="53"/>
       <c r="L38" s="52"/>
@@ -6208,7 +4345,7 @@
       <c r="N38" s="11"/>
       <c r="O38" s="4"/>
     </row>
-    <row r="39" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" ht="12.6" customHeight="1">
       <c r="A39" s="20"/>
       <c r="B39" s="20"/>
       <c r="C39" s="17"/>
@@ -6224,7 +4361,7 @@
       <c r="M39" s="17"/>
       <c r="N39" s="17"/>
     </row>
-    <row r="41" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" ht="24.9" customHeight="1">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -6242,16 +4379,25 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="46">
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="F32:I32"/>
     <mergeCell ref="F33:I33"/>
     <mergeCell ref="F37:I37"/>
@@ -6268,26 +4414,17 @@
     <mergeCell ref="F27:I27"/>
     <mergeCell ref="F28:I28"/>
     <mergeCell ref="F29:I29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I21:L21"/>
     <mergeCell ref="B24:C24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="B22:C22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -6303,7 +4440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Tabelle6">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6313,17 +4450,17 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="24.9" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="6" max="6" width="3.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" customWidth="1"/>
-    <col min="10" max="10" width="3.7109375" customWidth="1"/>
+    <col min="6" max="6" width="3.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" customWidth="1"/>
+    <col min="9" max="9" width="18.109375" customWidth="1"/>
+    <col min="10" max="10" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="24.9" customHeight="1">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -6333,7 +4470,7 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="24.9" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -6343,7 +4480,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="24.9" customHeight="1">
       <c r="A3" s="30" t="str">
         <f>'FRONT PAGE'!A2</f>
         <v>BREMER BAUMWOLL - RUNDTEST  2017-2</v>
@@ -6355,12 +4492,12 @@
       <c r="H3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="42" t="str">
+      <c r="I3" s="42">
         <f>IF('FRONT PAGE'!G2&gt;0,'FRONT PAGE'!G2," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="30" t="s">
         <v>93</v>
       </c>
@@ -6371,7 +4508,7 @@
       <c r="G4" s="13"/>
       <c r="H4" s="48"/>
     </row>
-    <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="24.9" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -6380,7 +4517,7 @@
       <c r="G5" s="13"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="24.9" customHeight="1">
       <c r="A6" s="37" t="s">
         <v>95</v>
       </c>
@@ -6395,7 +4532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="24.9" customHeight="1">
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="G7" s="13"/>
@@ -6407,14 +4544,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="24.9" customHeight="1">
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="G8" s="13"/>
       <c r="H8" s="7"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="24.9" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -6427,7 +4564,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="24.9" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -6438,7 +4575,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="24.9" customHeight="1">
       <c r="A11" s="11" t="s">
         <v>84</v>
       </c>
@@ -6452,7 +4589,7 @@
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
     </row>
-    <row r="12" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="24.9" customHeight="1">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -6468,7 +4605,7 @@
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
     </row>
-    <row r="13" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="24.9" customHeight="1">
       <c r="A13" s="11"/>
       <c r="B13" s="11" t="s">
         <v>22</v>
@@ -6484,7 +4621,7 @@
       <c r="I13" s="21"/>
       <c r="J13" s="17"/>
     </row>
-    <row r="14" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="24.9" customHeight="1">
       <c r="A14" s="11"/>
       <c r="B14" s="11" t="s">
         <v>23</v>
@@ -6502,7 +4639,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="17"/>
     </row>
-    <row r="15" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="24.9" customHeight="1">
       <c r="A15" s="11"/>
       <c r="B15" s="11" t="s">
         <v>48</v>
@@ -6520,7 +4657,7 @@
       <c r="I15" s="10"/>
       <c r="J15" s="17"/>
     </row>
-    <row r="16" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="24.9" customHeight="1">
       <c r="A16" s="11"/>
       <c r="B16" s="11" t="s">
         <v>49</v>
@@ -6536,7 +4673,7 @@
       <c r="I16" s="61"/>
       <c r="J16" s="17"/>
     </row>
-    <row r="17" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="24.9" customHeight="1">
       <c r="A17" s="11"/>
       <c r="B17" s="11" t="s">
         <v>50</v>
@@ -6552,7 +4689,7 @@
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
     </row>
-    <row r="18" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="24.9" customHeight="1">
       <c r="A18" s="11"/>
       <c r="B18" s="11" t="s">
         <v>98</v>
@@ -6568,7 +4705,7 @@
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
     </row>
-    <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="24.9" customHeight="1">
       <c r="A19" s="11"/>
       <c r="B19" s="11" t="s">
         <v>51</v>
@@ -6576,15 +4713,15 @@
       <c r="C19" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="116"/>
-      <c r="E19" s="116"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
     </row>
-    <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="24.9" customHeight="1">
       <c r="A20" s="11"/>
       <c r="B20" s="11" t="s">
         <v>99</v>
@@ -6592,15 +4729,15 @@
       <c r="C20" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="116"/>
-      <c r="E20" s="116"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="117"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
     </row>
-    <row r="21" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="24.9" customHeight="1">
       <c r="A21" s="11"/>
       <c r="B21" s="11" t="s">
         <v>52</v>
@@ -6608,15 +4745,15 @@
       <c r="C21" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="116"/>
-      <c r="E21" s="116"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
     </row>
-    <row r="22" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="24.9" customHeight="1">
       <c r="A22" s="11"/>
       <c r="B22" s="11" t="s">
         <v>53</v>
@@ -6624,29 +4761,29 @@
       <c r="C22" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="116"/>
-      <c r="E22" s="116"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="117"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
     </row>
-    <row r="23" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="24.9" customHeight="1">
       <c r="A23" s="11"/>
       <c r="B23" s="11" t="s">
         <v>67</v>
       </c>
       <c r="C23" s="12"/>
-      <c r="D23" s="116"/>
-      <c r="E23" s="116"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="117"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="17"/>
       <c r="J23" s="17"/>
     </row>
-    <row r="24" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="12.6" customHeight="1">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
@@ -6658,7 +4795,7 @@
       <c r="I24" s="17"/>
       <c r="J24" s="17"/>
     </row>
-    <row r="25" spans="1:10" s="16" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" s="16" customFormat="1" ht="24.9" customHeight="1">
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" s="15"/>
@@ -6668,7 +4805,7 @@
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
     </row>
-    <row r="26" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="24.9" customHeight="1">
       <c r="A26" s="11" t="s">
         <v>56</v>
       </c>
@@ -6682,7 +4819,7 @@
       <c r="I26" s="17"/>
       <c r="J26" s="17"/>
     </row>
-    <row r="27" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="24.9" customHeight="1">
       <c r="A27" s="11"/>
       <c r="B27" s="74" t="s">
         <v>130</v>
@@ -6690,8 +4827,8 @@
       <c r="C27" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="D27" s="102"/>
-      <c r="E27" s="104"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="97"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11" t="s">
         <v>59</v>
@@ -6700,7 +4837,7 @@
       <c r="I27" s="14"/>
       <c r="J27" s="17"/>
     </row>
-    <row r="28" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="24.9" customHeight="1">
       <c r="A28" s="11"/>
       <c r="B28" s="74" t="s">
         <v>131</v>
@@ -6708,15 +4845,15 @@
       <c r="C28" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="102"/>
-      <c r="E28" s="104"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="97"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
       <c r="I28" s="62"/>
       <c r="J28" s="17"/>
     </row>
-    <row r="29" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="24.9" customHeight="1">
       <c r="A29" s="11"/>
       <c r="B29" s="74" t="s">
         <v>132</v>
@@ -6724,15 +4861,15 @@
       <c r="C29" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="D29" s="102"/>
-      <c r="E29" s="104"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="97"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
       <c r="I29" s="23"/>
       <c r="J29" s="17"/>
     </row>
-    <row r="30" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="24.9" customHeight="1">
       <c r="A30" s="11"/>
       <c r="B30" s="74" t="s">
         <v>133</v>
@@ -6748,7 +4885,7 @@
       <c r="I30" s="23"/>
       <c r="J30" s="17"/>
     </row>
-    <row r="31" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="24.9" customHeight="1">
       <c r="A31" s="11"/>
       <c r="B31" s="74" t="s">
         <v>134</v>
@@ -6764,7 +4901,7 @@
       <c r="I31" s="23"/>
       <c r="J31" s="17"/>
     </row>
-    <row r="32" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="24.9" customHeight="1">
       <c r="A32" s="11"/>
       <c r="B32" s="74" t="s">
         <v>135</v>
@@ -6772,15 +4909,15 @@
       <c r="C32" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D32" s="102"/>
-      <c r="E32" s="104"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="97"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
       <c r="I32" s="17"/>
       <c r="J32" s="17"/>
     </row>
-    <row r="33" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="12.6" customHeight="1">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="12"/>
@@ -6792,7 +4929,7 @@
       <c r="I33" s="17"/>
       <c r="J33" s="17"/>
     </row>
-    <row r="34" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="24.9" customHeight="1">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
       <c r="C34" s="15"/>
@@ -6802,7 +4939,7 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="24.9" customHeight="1">
       <c r="A35" s="11" t="s">
         <v>57</v>
       </c>
@@ -6816,7 +4953,7 @@
       <c r="I35" s="17"/>
       <c r="J35" s="17"/>
     </row>
-    <row r="36" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="24.9" customHeight="1">
       <c r="A36" s="11"/>
       <c r="B36" s="11" t="s">
         <v>123</v>
@@ -6824,15 +4961,15 @@
       <c r="C36" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="D36" s="102"/>
-      <c r="E36" s="79"/>
+      <c r="D36" s="95"/>
+      <c r="E36" s="80"/>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
       <c r="I36" s="21"/>
       <c r="J36" s="17"/>
     </row>
-    <row r="37" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="24.9" customHeight="1">
       <c r="A37" s="11"/>
       <c r="B37" s="11" t="s">
         <v>124</v>
@@ -6840,15 +4977,15 @@
       <c r="C37" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D37" s="102"/>
-      <c r="E37" s="104"/>
+      <c r="D37" s="95"/>
+      <c r="E37" s="97"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
       <c r="I37" s="63"/>
       <c r="J37" s="17"/>
     </row>
-    <row r="38" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="24.9" customHeight="1">
       <c r="A38" s="11"/>
       <c r="B38" s="11" t="s">
         <v>126</v>
@@ -6864,7 +5001,7 @@
       <c r="I38" s="63"/>
       <c r="J38" s="17"/>
     </row>
-    <row r="39" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="24.9" customHeight="1">
       <c r="A39" s="11"/>
       <c r="B39" s="11" t="s">
         <v>127</v>
@@ -6872,15 +5009,15 @@
       <c r="C39" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D39" s="102"/>
-      <c r="E39" s="104"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="97"/>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
       <c r="I39" s="23"/>
       <c r="J39" s="17"/>
     </row>
-    <row r="40" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="24.9" customHeight="1">
       <c r="A40" s="11"/>
       <c r="B40" s="11" t="s">
         <v>128</v>
@@ -6896,7 +5033,7 @@
       <c r="I40" s="23"/>
       <c r="J40" s="17"/>
     </row>
-    <row r="41" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="24.9" customHeight="1">
       <c r="A41" s="11"/>
       <c r="B41" s="11" t="s">
         <v>129</v>
@@ -6912,7 +5049,7 @@
       <c r="I41" s="23"/>
       <c r="J41" s="17"/>
     </row>
-    <row r="42" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="24.9" customHeight="1">
       <c r="A42" s="11"/>
       <c r="B42" s="11" t="s">
         <v>58</v>
@@ -6920,15 +5057,15 @@
       <c r="C42" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="102"/>
-      <c r="E42" s="104"/>
+      <c r="D42" s="95"/>
+      <c r="E42" s="97"/>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
       <c r="I42" s="17"/>
       <c r="J42" s="17"/>
     </row>
-    <row r="43" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="12.6" customHeight="1">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="12"/>
@@ -6940,7 +5077,7 @@
       <c r="I43" s="17"/>
       <c r="J43" s="17"/>
     </row>
-    <row r="44" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="24.9" customHeight="1">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -6950,7 +5087,7 @@
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="24.9" customHeight="1">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -6962,7 +5099,7 @@
       <c r="I45" s="34"/>
       <c r="J45" s="34"/>
     </row>
-    <row r="46" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="24.9" customHeight="1">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -6972,7 +5109,7 @@
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" ht="24.9" customHeight="1">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -6982,7 +5119,7 @@
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" ht="24.9" customHeight="1">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -6992,7 +5129,7 @@
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="24.9" customHeight="1">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -7002,7 +5139,7 @@
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="24.9" customHeight="1">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -7012,7 +5149,7 @@
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="24.9" customHeight="1">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -7022,7 +5159,7 @@
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
     </row>
-    <row r="52" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="24.9" customHeight="1">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -7032,7 +5169,7 @@
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
-    <row r="53" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="24.9" customHeight="1">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -7042,7 +5179,7 @@
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
     </row>
-    <row r="54" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="24.9" customHeight="1">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -7052,7 +5189,7 @@
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
     </row>
-    <row r="55" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="24.9" customHeight="1">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -7062,7 +5199,7 @@
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
     </row>
-    <row r="56" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="24.9" customHeight="1">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -7072,7 +5209,7 @@
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
     </row>
-    <row r="57" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="24.9" customHeight="1">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -7082,7 +5219,7 @@
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
     </row>
-    <row r="58" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="24.9" customHeight="1">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -7092,7 +5229,7 @@
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
     </row>
-    <row r="59" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="24.9" customHeight="1">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -7102,7 +5239,7 @@
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
     </row>
-    <row r="60" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="24.9" customHeight="1">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -7112,7 +5249,7 @@
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
     </row>
-    <row r="61" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" ht="24.9" customHeight="1">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -7122,7 +5259,7 @@
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
     </row>
-    <row r="62" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="24.9" customHeight="1">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -7132,7 +5269,7 @@
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
     </row>
-    <row r="63" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" ht="24.9" customHeight="1">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -7142,7 +5279,7 @@
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
     </row>
-    <row r="64" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" ht="24.9" customHeight="1">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -7152,7 +5289,7 @@
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
     </row>
-    <row r="65" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" ht="24.9" customHeight="1">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -7162,7 +5299,7 @@
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
     </row>
-    <row r="66" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="24.9" customHeight="1">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -7172,7 +5309,7 @@
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
     </row>
-    <row r="67" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" ht="24.9" customHeight="1">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -7182,7 +5319,7 @@
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
     </row>
-    <row r="68" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="24.9" customHeight="1">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -7192,7 +5329,7 @@
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
     </row>
-    <row r="69" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" ht="24.9" customHeight="1">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -7202,7 +5339,7 @@
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
     </row>
-    <row r="70" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="24.9" customHeight="1">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -7212,7 +5349,7 @@
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
     </row>
-    <row r="71" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="24.9" customHeight="1">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -7222,7 +5359,7 @@
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
     </row>
-    <row r="72" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" ht="24.9" customHeight="1">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -7232,7 +5369,7 @@
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
     </row>
-    <row r="73" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" ht="24.9" customHeight="1">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -7242,7 +5379,7 @@
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
     </row>
-    <row r="74" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" ht="24.9" customHeight="1">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -7252,7 +5389,7 @@
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
     </row>
-    <row r="75" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="24.9" customHeight="1">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -7262,7 +5399,7 @@
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
     </row>
-    <row r="76" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" ht="24.9" customHeight="1">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -7272,7 +5409,7 @@
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
     </row>
-    <row r="77" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="24.9" customHeight="1">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -7282,7 +5419,7 @@
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
     </row>
-    <row r="78" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="24.9" customHeight="1">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -7292,7 +5429,7 @@
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
     </row>
-    <row r="79" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="24.9" customHeight="1">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -7302,7 +5439,7 @@
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
     </row>
-    <row r="80" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="24.9" customHeight="1">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -7312,7 +5449,7 @@
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
     </row>
-    <row r="81" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" ht="24.9" customHeight="1">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -7322,7 +5459,7 @@
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
     </row>
-    <row r="82" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" ht="24.9" customHeight="1">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -7332,7 +5469,7 @@
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
     </row>
-    <row r="83" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="24.9" customHeight="1">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -7342,7 +5479,7 @@
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
     </row>
-    <row r="84" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" ht="24.9" customHeight="1">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -7352,7 +5489,7 @@
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
     </row>
-    <row r="85" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" ht="24.9" customHeight="1">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -7362,7 +5499,7 @@
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
     </row>
-    <row r="86" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" ht="24.9" customHeight="1">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -7372,7 +5509,7 @@
       <c r="G86" s="5"/>
       <c r="H86" s="5"/>
     </row>
-    <row r="87" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" ht="24.9" customHeight="1">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -7382,7 +5519,7 @@
       <c r="G87" s="5"/>
       <c r="H87" s="5"/>
     </row>
-    <row r="88" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" ht="24.9" customHeight="1">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -7392,7 +5529,7 @@
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
     </row>
-    <row r="89" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" ht="24.9" customHeight="1">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -7402,7 +5539,7 @@
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
     </row>
-    <row r="90" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" ht="24.9" customHeight="1">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -7412,7 +5549,7 @@
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
     </row>
-    <row r="91" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" ht="24.9" customHeight="1">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -7422,7 +5559,7 @@
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
     </row>
-    <row r="92" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" ht="24.9" customHeight="1">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -7435,12 +5572,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="13">
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D42:E42"/>
@@ -7448,6 +5579,12 @@
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -7463,7 +5600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Tabelle7">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7473,15 +5610,15 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="24.9" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="8" max="8" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" customWidth="1"/>
+    <col min="8" max="8" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="24.9" customHeight="1">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7490,7 +5627,7 @@
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="24.9" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -7499,7 +5636,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="24.9" customHeight="1">
       <c r="A3" s="30" t="str">
         <f>'FRONT PAGE'!A2</f>
         <v>BREMER BAUMWOLL - RUNDTEST  2017-2</v>
@@ -7511,12 +5648,12 @@
       <c r="F3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="42" t="str">
+      <c r="G3" s="42">
         <f>IF('FRONT PAGE'!G2&gt;0,'FRONT PAGE'!G2," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="30" t="s">
         <v>87</v>
       </c>
@@ -7527,7 +5664,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="48"/>
     </row>
-    <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="24.9" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -7536,7 +5673,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="24.9" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>77</v>
       </c>
@@ -7547,7 +5684,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="24.9" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -7561,13 +5698,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="24.9" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="68"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="117"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="118"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
         <v>3</v>
@@ -7577,7 +5714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="24.9" customHeight="1">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -7586,7 +5723,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="24.9" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -7595,7 +5732,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="24.9" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -7607,7 +5744,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="12.6" customHeight="1">
       <c r="A12" s="38"/>
       <c r="B12" s="38"/>
       <c r="C12" s="38"/>
@@ -7619,7 +5756,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="24.9" customHeight="1">
       <c r="A13" s="11" t="s">
         <v>60</v>
       </c>
@@ -7637,7 +5774,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="24.9" customHeight="1">
       <c r="A14" s="11"/>
       <c r="B14" s="74" t="s">
         <v>136</v>
@@ -7646,14 +5783,14 @@
       <c r="D14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="102"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="79"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="80"/>
       <c r="H14" s="20"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="24.9" customHeight="1">
       <c r="A15" s="11"/>
       <c r="B15" s="74" t="s">
         <v>137</v>
@@ -7662,14 +5799,14 @@
       <c r="D15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="102"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="79"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="80"/>
       <c r="H15" s="20"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="24.9" customHeight="1">
       <c r="A16" s="11"/>
       <c r="B16" s="74" t="s">
         <v>138</v>
@@ -7685,7 +5822,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="24.9" customHeight="1">
       <c r="A17" s="11"/>
       <c r="B17" s="74" t="s">
         <v>139</v>
@@ -7694,14 +5831,14 @@
       <c r="D17" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="102"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="79"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="80"/>
       <c r="H17" s="20"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="24.9" customHeight="1">
       <c r="A18" s="11"/>
       <c r="B18" s="74" t="s">
         <v>140</v>
@@ -7710,14 +5847,14 @@
       <c r="D18" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="102"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="79"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="80"/>
       <c r="H18" s="20"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="24.9" customHeight="1">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -7729,7 +5866,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="24.9" customHeight="1">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -7741,7 +5878,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="25.5" customHeight="1">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -7753,7 +5890,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="12.6" customHeight="1">
       <c r="A22" s="38"/>
       <c r="B22" s="38"/>
       <c r="C22" s="38"/>
@@ -7765,7 +5902,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="24.9" customHeight="1">
       <c r="A23" s="11" t="s">
         <v>61</v>
       </c>
@@ -7783,7 +5920,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="24.9" customHeight="1">
       <c r="A24" s="19"/>
       <c r="B24" s="74" t="s">
         <v>130</v>
@@ -7792,14 +5929,14 @@
       <c r="D24" s="75" t="s">
         <v>125</v>
       </c>
-      <c r="E24" s="102"/>
-      <c r="F24" s="103"/>
-      <c r="G24" s="79"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="80"/>
       <c r="H24" s="20"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="24.9" customHeight="1">
       <c r="A25" s="19"/>
       <c r="B25" s="74" t="s">
         <v>131</v>
@@ -7815,7 +5952,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="24.9" customHeight="1">
       <c r="A26" s="19"/>
       <c r="B26" s="74" t="s">
         <v>132</v>
@@ -7831,7 +5968,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="24.9" customHeight="1">
       <c r="A27" s="19"/>
       <c r="B27" s="74" t="s">
         <v>133</v>
@@ -7847,7 +5984,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="24.9" customHeight="1">
       <c r="A28" s="19"/>
       <c r="B28" s="74" t="s">
         <v>141</v>
@@ -7863,7 +6000,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="24.9" customHeight="1">
       <c r="A29" s="19"/>
       <c r="B29" s="74" t="s">
         <v>142</v>
@@ -7872,14 +6009,14 @@
       <c r="D29" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="102"/>
-      <c r="F29" s="103"/>
-      <c r="G29" s="79"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="96"/>
+      <c r="G29" s="80"/>
       <c r="H29" s="20"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="24.9" customHeight="1">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -7891,7 +6028,7 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="24.9" customHeight="1">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -7903,7 +6040,7 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="24.9" customHeight="1">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -7915,7 +6052,7 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="24.9" customHeight="1">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -7927,7 +6064,7 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="24.9" customHeight="1">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -7939,7 +6076,7 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="24.9" customHeight="1">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -7951,7 +6088,7 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="24.9" customHeight="1">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -7963,7 +6100,7 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="24.9" customHeight="1">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -7975,7 +6112,7 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="24.9" customHeight="1">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -7987,15 +6124,15 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="24.9" customHeight="1">
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="24.9" customHeight="1">
       <c r="H40" s="2"/>
     </row>
-    <row r="41" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="24.9" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -8007,7 +6144,7 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="24.9" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -8019,7 +6156,7 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="24.9" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -8031,7 +6168,7 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="24.9" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
